--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO874231.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO874231.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CACD6B-6E95-4B8F-88F5-C66F3F25A517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CCED8E-A60F-40A9-9C00-9B102D1C10DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{62236032-0187-412C-9979-A4871C4C16BE}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
-  <si>
-    <t>Concierge Services</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>CAD</t>
   </si>
@@ -36,10 +33,19 @@
     <t>Waste management services</t>
   </si>
   <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>Professional Services</t>
+    <t>Concierge Services</t>
   </si>
   <si>
     <t>USD</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51A5A8C-6320-40C5-A581-3D03A739FEA5}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,163 +412,416 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>623137</v>
+        <v>658334</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>135613</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42788</v>
       </c>
       <c r="D1">
-        <v>27122.6</v>
+        <v>298657</v>
       </c>
       <c r="E1">
-        <v>162736</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42760</v>
+        <v>59731.4</v>
+      </c>
+      <c r="F1">
+        <v>358388</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>685079</v>
+        <v>509452</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>57316</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42820</v>
       </c>
       <c r="D2">
-        <v>11463.2</v>
+        <v>249176</v>
       </c>
       <c r="E2">
-        <v>68779.199999999997</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42750</v>
+        <v>49835.199999999997</v>
+      </c>
+      <c r="F2">
+        <v>299011</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>272621</v>
+        <v>729687</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>107886</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42826</v>
       </c>
       <c r="D3">
-        <v>21577.200000000001</v>
+        <v>106779</v>
       </c>
       <c r="E3">
-        <v>129463</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42973</v>
+        <v>21355.8</v>
+      </c>
+      <c r="F3">
+        <v>128135</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>931801</v>
+        <v>197980</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>212165</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42831</v>
       </c>
       <c r="D4">
-        <v>42433</v>
+        <v>173916</v>
       </c>
       <c r="E4">
-        <v>254598</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43003</v>
+        <v>34783.199999999997</v>
+      </c>
+      <c r="F4">
+        <v>208699</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>819052</v>
+        <v>465365</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>171998</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42857</v>
       </c>
       <c r="D5">
-        <v>34399.599999999999</v>
+        <v>295530</v>
       </c>
       <c r="E5">
-        <v>206398</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43031</v>
+        <v>59106</v>
+      </c>
+      <c r="F5">
+        <v>354636</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>975435</v>
+        <v>147698</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>159941</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42873</v>
       </c>
       <c r="D6">
-        <v>31988.2</v>
+        <v>182587</v>
       </c>
       <c r="E6">
-        <v>191929</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43048</v>
+        <v>36517.4</v>
+      </c>
+      <c r="F6">
+        <v>219104</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>544505</v>
+        <v>370774</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>251443</v>
+      <c r="C7" s="1">
+        <v>42903</v>
       </c>
       <c r="D7">
-        <v>50288.6</v>
+        <v>19308</v>
       </c>
       <c r="E7">
-        <v>301732</v>
-      </c>
-      <c r="F7" t="s">
+        <v>3861.6</v>
+      </c>
+      <c r="F7">
+        <v>23169.599999999999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>788094</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42941</v>
+      </c>
+      <c r="D8">
+        <v>184849</v>
+      </c>
+      <c r="E8">
+        <v>36969.800000000003</v>
+      </c>
+      <c r="F8">
+        <v>221819</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>337960</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42919</v>
+      </c>
+      <c r="D9">
+        <v>143799</v>
+      </c>
+      <c r="E9">
+        <v>28759.8</v>
+      </c>
+      <c r="F9">
+        <v>172559</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>193355</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42921</v>
+      </c>
+      <c r="D10">
+        <v>266306</v>
+      </c>
+      <c r="E10">
+        <v>53261.2</v>
+      </c>
+      <c r="F10">
+        <v>319567</v>
+      </c>
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
-        <v>43093</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>296882</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42957</v>
+      </c>
+      <c r="D11">
+        <v>127203</v>
+      </c>
+      <c r="E11">
+        <v>25440.6</v>
+      </c>
+      <c r="F11">
+        <v>152644</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>698325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42966</v>
+      </c>
+      <c r="D12">
+        <v>209182</v>
+      </c>
+      <c r="E12">
+        <v>41836.400000000001</v>
+      </c>
+      <c r="F12">
+        <v>251018</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>128426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43004</v>
+      </c>
+      <c r="D13">
+        <v>166790</v>
+      </c>
+      <c r="E13">
+        <v>33358</v>
+      </c>
+      <c r="F13">
+        <v>200148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>313637</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43003</v>
+      </c>
+      <c r="D14">
+        <v>272930</v>
+      </c>
+      <c r="E14">
+        <v>54586</v>
+      </c>
+      <c r="F14">
+        <v>327516</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>583153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43015</v>
+      </c>
+      <c r="D15">
+        <v>165821</v>
+      </c>
+      <c r="E15">
+        <v>33164.199999999997</v>
+      </c>
+      <c r="F15">
+        <v>198985</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>645791</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43017</v>
+      </c>
+      <c r="D16">
+        <v>71726</v>
+      </c>
+      <c r="E16">
+        <v>14345.2</v>
+      </c>
+      <c r="F16">
+        <v>86071.2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>335556</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43085</v>
+      </c>
+      <c r="D17">
+        <v>65917</v>
+      </c>
+      <c r="E17">
+        <v>13183.4</v>
+      </c>
+      <c r="F17">
+        <v>79100.399999999994</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>669604</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43097</v>
+      </c>
+      <c r="D18">
+        <v>172266</v>
+      </c>
+      <c r="E18">
+        <v>34453.199999999997</v>
+      </c>
+      <c r="F18">
+        <v>206719</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
